--- a/CodeSystem-v3-RoleClass.xlsx
+++ b/CodeSystem-v3-RoleClass.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Name</t>

--- a/CodeSystem-v3-RoleClass.xlsx
+++ b/CodeSystem-v3-RoleClass.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1-snapshot-3</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
